--- a/Blatt 1/Aufgabe2.xlsx
+++ b/Blatt 1/Aufgabe2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Uni\Software Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Uni\Software-Engineering\Blatt 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
   <si>
     <t>Arbeiter1</t>
   </si>
@@ -89,14 +89,29 @@
     <t xml:space="preserve">c) </t>
   </si>
   <si>
-    <t>Kritische Pfad dauert für 1 Person 21 Tage =&gt; da maximal 2 Personen daran Arbeiten wird das Projekt frühstens nach 10,5 Tagen fertig. Also Nein</t>
+    <t>Arbeiter5</t>
+  </si>
+  <si>
+    <t>Arbeiter6</t>
+  </si>
+  <si>
+    <t>Arbeiter7</t>
+  </si>
+  <si>
+    <t>Arbeiter8</t>
+  </si>
+  <si>
+    <t>Test für 2c, fast nur kritischer Pfad , zeigt das es nicht möglich scheint</t>
+  </si>
+  <si>
+    <t>Kritische Pfad dauert für 1 Person 21 Tage =&gt; da maximal 2 Personen daran Arbeiten wird das Projekt frühstens nach 10,5 Tagen fertig. Also Nein  es ist nicht möglich. Für eine Zeitoptimierung sollten mindestens 2 Weiter Personen zugeteilt werden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +119,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,9 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -417,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,67 +722,327 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>11</v>
+      </c>
+      <c r="M25">
+        <v>12</v>
+      </c>
+      <c r="N25">
+        <v>13</v>
+      </c>
+      <c r="O25">
+        <v>14</v>
+      </c>
+      <c r="P25">
+        <v>15</v>
+      </c>
+      <c r="Q25">
+        <v>16</v>
+      </c>
+      <c r="R25">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B7:R9"/>
+    <mergeCell ref="B7:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
